--- a/Resource/excel/P-匹配-名字随机-(后端定义,策划填写).xlsx
+++ b/Resource/excel/P-匹配-名字随机-(后端定义,策划填写).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="2" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="341">
   <si>
     <t>#name</t>
   </si>
@@ -156,9 +161,6 @@
   </si>
   <si>
     <t>Charles</t>
-  </si>
-  <si>
-    <t>Cheney</t>
   </si>
   <si>
     <t>Chris</t>
@@ -1082,14 +1084,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1115,157 +1111,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1277,7 +1122,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1302,194 +1147,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1512,251 +1171,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1813,61 +1230,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1889,12 +1258,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2223,19 +1595,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="B338" sqref="B338"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="6" customWidth="1"/>
@@ -2253,13 +1625,13 @@
     <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2273,7 +1645,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2281,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -2295,7 +1667,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:2">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -2303,7 +1675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -2311,7 +1683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -2319,7 +1691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -2327,7 +1699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -2335,7 +1707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -2343,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -2351,7 +1723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>1</v>
       </c>
@@ -2359,7 +1731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>1</v>
       </c>
@@ -2367,7 +1739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -2375,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -2383,7 +1755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>1</v>
       </c>
@@ -2391,7 +1763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>1</v>
       </c>
@@ -2399,7 +1771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>1</v>
       </c>
@@ -2407,7 +1779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <v>1</v>
       </c>
@@ -2415,7 +1787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>1</v>
       </c>
@@ -2423,7 +1795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <v>1</v>
       </c>
@@ -2431,7 +1803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>1</v>
       </c>
@@ -2439,7 +1811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <v>1</v>
       </c>
@@ -2447,7 +1819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>1</v>
       </c>
@@ -2455,7 +1827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>1</v>
       </c>
@@ -2463,7 +1835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>1</v>
       </c>
@@ -2471,7 +1843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>1</v>
       </c>
@@ -2479,7 +1851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>1</v>
       </c>
@@ -2487,7 +1859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <v>1</v>
       </c>
@@ -2495,7 +1867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <v>1</v>
       </c>
@@ -2503,7 +1875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <v>1</v>
       </c>
@@ -2511,7 +1883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>1</v>
       </c>
@@ -2519,7 +1891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <v>1</v>
       </c>
@@ -2527,7 +1899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <v>1</v>
       </c>
@@ -2535,2473 +1907,2473 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <v>1</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <v>1</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="14">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="14">
-        <v>1</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="14">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="14">
-        <v>1</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="14">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="14">
-        <v>1</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="14">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="14">
-        <v>1</v>
-      </c>
-      <c r="B40" s="6" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="14">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="14">
-        <v>1</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="14">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="14">
-        <v>1</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="14">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="14">
-        <v>1</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="14">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="14">
-        <v>1</v>
-      </c>
-      <c r="B44" s="6" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="14">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="14">
-        <v>1</v>
-      </c>
-      <c r="B45" s="6" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="14">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="14">
-        <v>1</v>
-      </c>
-      <c r="B46" s="6" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="14">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="14">
-        <v>1</v>
-      </c>
-      <c r="B47" s="6" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="14">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="14">
-        <v>1</v>
-      </c>
-      <c r="B48" s="6" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="14">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="14">
-        <v>1</v>
-      </c>
-      <c r="B49" s="6" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="14">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="14">
-        <v>1</v>
-      </c>
-      <c r="B50" s="6" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="14">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="14">
-        <v>1</v>
-      </c>
-      <c r="B51" s="6" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="14">
+        <v>1</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="14">
-        <v>1</v>
-      </c>
-      <c r="B52" s="6" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="14">
+        <v>1</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="14">
-        <v>1</v>
-      </c>
-      <c r="B53" s="16" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="14">
+        <v>1</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="14">
-        <v>1</v>
-      </c>
-      <c r="B54" s="6" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="14">
+        <v>1</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="14">
-        <v>1</v>
-      </c>
-      <c r="B55" s="6" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="14">
+        <v>1</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="14">
-        <v>1</v>
-      </c>
-      <c r="B56" s="16" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="14">
+        <v>1</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="14">
-        <v>1</v>
-      </c>
-      <c r="B57" s="6" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="14">
+        <v>1</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="14">
-        <v>1</v>
-      </c>
-      <c r="B58" s="6" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="14">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="14">
-        <v>1</v>
-      </c>
-      <c r="B59" s="6" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="14">
+        <v>1</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="14">
-        <v>1</v>
-      </c>
-      <c r="B60" s="16" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="14">
+        <v>1</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="14">
-        <v>1</v>
-      </c>
-      <c r="B61" s="6" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="14">
+        <v>1</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="14">
-        <v>1</v>
-      </c>
-      <c r="B62" s="6" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="14">
+        <v>1</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="14">
-        <v>1</v>
-      </c>
-      <c r="B63" s="6" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="14">
+        <v>1</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="14">
-        <v>1</v>
-      </c>
-      <c r="B64" s="6" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="14">
+        <v>1</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="14">
-        <v>1</v>
-      </c>
-      <c r="B65" s="6" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="14">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="14">
-        <v>1</v>
-      </c>
-      <c r="B66" s="6" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="14">
+        <v>1</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="14">
-        <v>1</v>
-      </c>
-      <c r="B67" s="6" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="14">
+        <v>1</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="14">
-        <v>1</v>
-      </c>
-      <c r="B68" s="6" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="14">
+        <v>1</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="14">
-        <v>1</v>
-      </c>
-      <c r="B69" s="6" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="14">
+        <v>1</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="14">
-        <v>1</v>
-      </c>
-      <c r="B70" s="6" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="14">
+        <v>1</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="14">
-        <v>1</v>
-      </c>
-      <c r="B71" s="6" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="14">
+        <v>1</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="14">
-        <v>1</v>
-      </c>
-      <c r="B72" s="6" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="14">
+        <v>1</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="14">
-        <v>1</v>
-      </c>
-      <c r="B73" s="16" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="14">
+        <v>1</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="14">
-        <v>1</v>
-      </c>
-      <c r="B74" s="6" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="14">
+        <v>1</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="14">
-        <v>1</v>
-      </c>
-      <c r="B75" s="6" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="14">
+        <v>1</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="14">
-        <v>1</v>
-      </c>
-      <c r="B76" s="6" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="14">
+        <v>1</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="14">
-        <v>1</v>
-      </c>
-      <c r="B77" s="6" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="14">
+        <v>1</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="14">
-        <v>1</v>
-      </c>
-      <c r="B78" s="6" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="14">
+        <v>1</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="14">
-        <v>1</v>
-      </c>
-      <c r="B79" s="16" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="14">
+        <v>1</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="14">
-        <v>1</v>
-      </c>
-      <c r="B80" s="6" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="14">
+        <v>1</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="14">
-        <v>1</v>
-      </c>
-      <c r="B81" s="6" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="14">
+        <v>1</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="14">
-        <v>1</v>
-      </c>
-      <c r="B82" s="6" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="14">
+        <v>1</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="14">
-        <v>1</v>
-      </c>
-      <c r="B83" s="16" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="14">
+        <v>1</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="14">
-        <v>1</v>
-      </c>
-      <c r="B84" s="6" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="14">
+        <v>1</v>
+      </c>
+      <c r="B85" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="14">
-        <v>1</v>
-      </c>
-      <c r="B85" s="16" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="14">
+        <v>1</v>
+      </c>
+      <c r="B86" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="14">
-        <v>1</v>
-      </c>
-      <c r="B86" s="16" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="14">
+        <v>1</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="14">
-        <v>1</v>
-      </c>
-      <c r="B87" s="16" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="14">
+        <v>1</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="14">
-        <v>1</v>
-      </c>
-      <c r="B88" s="6" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="14">
+        <v>1</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="14">
-        <v>1</v>
-      </c>
-      <c r="B89" s="16" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="14">
+        <v>1</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="14">
-        <v>1</v>
-      </c>
-      <c r="B90" s="6" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="14">
+        <v>1</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="14">
-        <v>1</v>
-      </c>
-      <c r="B91" s="6" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="14">
+        <v>1</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="14">
-        <v>1</v>
-      </c>
-      <c r="B92" s="6" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="14">
+        <v>1</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="14">
-        <v>1</v>
-      </c>
-      <c r="B93" s="6" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="14">
+        <v>1</v>
+      </c>
+      <c r="B94" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="14">
-        <v>1</v>
-      </c>
-      <c r="B94" s="16" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="14">
+        <v>1</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="14">
-        <v>1</v>
-      </c>
-      <c r="B95" s="6" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="14">
+        <v>1</v>
+      </c>
+      <c r="B96" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="14">
-        <v>1</v>
-      </c>
-      <c r="B96" s="16" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="14">
+        <v>1</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="14">
-        <v>1</v>
-      </c>
-      <c r="B97" s="6" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="14">
+        <v>1</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="14">
-        <v>1</v>
-      </c>
-      <c r="B98" s="6" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="14">
+        <v>1</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="14">
-        <v>1</v>
-      </c>
-      <c r="B99" s="16" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="14">
+        <v>1</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="14">
-        <v>1</v>
-      </c>
-      <c r="B100" s="6" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="14">
+        <v>1</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="14">
-        <v>1</v>
-      </c>
-      <c r="B101" s="6" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="14">
+        <v>1</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="14">
-        <v>1</v>
-      </c>
-      <c r="B102" s="6" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="14">
+        <v>1</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="14">
-        <v>1</v>
-      </c>
-      <c r="B103" s="6" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="14">
+        <v>1</v>
+      </c>
+      <c r="B104" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="14">
-        <v>1</v>
-      </c>
-      <c r="B104" s="16" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="14">
+        <v>1</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="14">
-        <v>1</v>
-      </c>
-      <c r="B105" s="6" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="14">
+        <v>1</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="14">
-        <v>1</v>
-      </c>
-      <c r="B106" s="6" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="14">
+        <v>1</v>
+      </c>
+      <c r="B107" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="14">
-        <v>1</v>
-      </c>
-      <c r="B107" s="16" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="14">
+        <v>1</v>
+      </c>
+      <c r="B108" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="14">
-        <v>1</v>
-      </c>
-      <c r="B108" s="16" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="14">
+        <v>1</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="14">
-        <v>1</v>
-      </c>
-      <c r="B109" s="6" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="14">
+        <v>1</v>
+      </c>
+      <c r="B110" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="14">
-        <v>1</v>
-      </c>
-      <c r="B110" s="16" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="14">
+        <v>1</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="14">
-        <v>1</v>
-      </c>
-      <c r="B111" s="6" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="14">
+        <v>1</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="14">
-        <v>1</v>
-      </c>
-      <c r="B112" s="6" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="14">
+        <v>1</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="14">
-        <v>1</v>
-      </c>
-      <c r="B113" s="6" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="14">
+        <v>1</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="14">
-        <v>1</v>
-      </c>
-      <c r="B114" s="6" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="14">
+        <v>1</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="14">
-        <v>1</v>
-      </c>
-      <c r="B115" s="6" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="14">
+        <v>1</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="14">
-        <v>1</v>
-      </c>
-      <c r="B116" s="6" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="14">
+        <v>1</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="14">
-        <v>1</v>
-      </c>
-      <c r="B117" s="6" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="14">
+        <v>1</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="14">
-        <v>1</v>
-      </c>
-      <c r="B118" s="6" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="14">
+        <v>1</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="14">
-        <v>1</v>
-      </c>
-      <c r="B119" s="6" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="14">
+        <v>1</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="14">
-        <v>1</v>
-      </c>
-      <c r="B120" s="6" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="14">
+        <v>1</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="14">
-        <v>1</v>
-      </c>
-      <c r="B121" s="6" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="14">
+        <v>1</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="14">
-        <v>1</v>
-      </c>
-      <c r="B122" s="6" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="14">
+        <v>1</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="14">
-        <v>1</v>
-      </c>
-      <c r="B123" s="6" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="14">
+        <v>1</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="14">
-        <v>1</v>
-      </c>
-      <c r="B124" s="6" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="14">
+        <v>1</v>
+      </c>
+      <c r="B125" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="14">
-        <v>1</v>
-      </c>
-      <c r="B125" s="16" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="14">
+        <v>1</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="14">
-        <v>1</v>
-      </c>
-      <c r="B126" s="6" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="14">
+        <v>1</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="14">
-        <v>1</v>
-      </c>
-      <c r="B127" s="6" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="14">
+        <v>1</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="14">
-        <v>1</v>
-      </c>
-      <c r="B128" s="6" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="14">
+        <v>1</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="14">
-        <v>1</v>
-      </c>
-      <c r="B129" s="6" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="14">
+        <v>1</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="14">
-        <v>1</v>
-      </c>
-      <c r="B130" s="16" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="14">
+        <v>1</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="14">
-        <v>1</v>
-      </c>
-      <c r="B131" s="6" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="14">
+        <v>1</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="14">
-        <v>1</v>
-      </c>
-      <c r="B132" s="16" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="14">
+        <v>1</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="14">
-        <v>1</v>
-      </c>
-      <c r="B133" s="6" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="14">
+        <v>1</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="14">
-        <v>1</v>
-      </c>
-      <c r="B134" s="6" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="14">
+        <v>1</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="14">
-        <v>1</v>
-      </c>
-      <c r="B135" s="6" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="14">
+        <v>1</v>
+      </c>
+      <c r="B136" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="14">
-        <v>1</v>
-      </c>
-      <c r="B136" s="16" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="14">
+        <v>1</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="14">
-        <v>1</v>
-      </c>
-      <c r="B137" s="6" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="14">
+        <v>1</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="14">
-        <v>1</v>
-      </c>
-      <c r="B138" s="16" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="14">
+        <v>1</v>
+      </c>
+      <c r="B139" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="14">
-        <v>1</v>
-      </c>
-      <c r="B139" s="16" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="14">
+        <v>1</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="14">
-        <v>1</v>
-      </c>
-      <c r="B140" s="6" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="14">
+        <v>1</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="14">
-        <v>1</v>
-      </c>
-      <c r="B141" s="6" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="14">
+        <v>1</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="14">
-        <v>1</v>
-      </c>
-      <c r="B142" s="6" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="14">
+        <v>1</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="14">
-        <v>1</v>
-      </c>
-      <c r="B143" s="6" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="14">
+        <v>1</v>
+      </c>
+      <c r="B144" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="14">
-        <v>1</v>
-      </c>
-      <c r="B144" s="16" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="14">
+        <v>1</v>
+      </c>
+      <c r="B145" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="14">
-        <v>1</v>
-      </c>
-      <c r="B145" s="16" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="14">
+        <v>1</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="14">
-        <v>1</v>
-      </c>
-      <c r="B146" s="6" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="14">
+        <v>1</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="14">
-        <v>1</v>
-      </c>
-      <c r="B147" s="6" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="14">
+        <v>1</v>
+      </c>
+      <c r="B148" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="14">
-        <v>1</v>
-      </c>
-      <c r="B148" s="16" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="14">
+        <v>1</v>
+      </c>
+      <c r="B149" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="14">
-        <v>1</v>
-      </c>
-      <c r="B149" s="16" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="14">
+        <v>1</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="14">
-        <v>1</v>
-      </c>
-      <c r="B150" s="6" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="14">
+        <v>1</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="14">
-        <v>1</v>
-      </c>
-      <c r="B151" s="6" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="14">
+        <v>1</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="14">
-        <v>1</v>
-      </c>
-      <c r="B152" s="6" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="14">
+        <v>1</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="14">
-        <v>1</v>
-      </c>
-      <c r="B153" s="6" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="14">
+        <v>1</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="14">
-        <v>1</v>
-      </c>
-      <c r="B154" s="6" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="14">
+        <v>1</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="14">
-        <v>1</v>
-      </c>
-      <c r="B155" s="6" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="14">
+        <v>1</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="14">
-        <v>1</v>
-      </c>
-      <c r="B156" s="6" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="14">
+        <v>1</v>
+      </c>
+      <c r="B157" s="16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="14">
-        <v>1</v>
-      </c>
-      <c r="B157" s="16" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="14">
+        <v>1</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="14">
-        <v>1</v>
-      </c>
-      <c r="B158" s="6" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="14">
+        <v>1</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="14">
-        <v>1</v>
-      </c>
-      <c r="B159" s="6" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="14">
+        <v>1</v>
+      </c>
+      <c r="B160" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="14">
-        <v>1</v>
-      </c>
-      <c r="B160" s="16" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="14">
+        <v>1</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="14">
-        <v>1</v>
-      </c>
-      <c r="B161" s="6" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="14">
+        <v>1</v>
+      </c>
+      <c r="B162" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="14">
-        <v>1</v>
-      </c>
-      <c r="B162" s="16" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="14">
+        <v>1</v>
+      </c>
+      <c r="B163" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="14">
-        <v>1</v>
-      </c>
-      <c r="B163" s="16" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="14">
+        <v>1</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="14">
-        <v>1</v>
-      </c>
-      <c r="B164" s="6" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="14">
+        <v>1</v>
+      </c>
+      <c r="B165" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="14">
-        <v>1</v>
-      </c>
-      <c r="B165" s="16" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="14">
+        <v>1</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="14">
-        <v>1</v>
-      </c>
-      <c r="B166" s="6" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="14">
+        <v>1</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="14">
-        <v>1</v>
-      </c>
-      <c r="B167" s="6" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="14">
+        <v>1</v>
+      </c>
+      <c r="B168" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="14">
-        <v>1</v>
-      </c>
-      <c r="B168" s="16" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="14">
+        <v>1</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="14">
-        <v>1</v>
-      </c>
-      <c r="B169" s="6" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="14">
+        <v>1</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="14">
-        <v>1</v>
-      </c>
-      <c r="B170" s="6" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="14">
+        <v>1</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="14">
-        <v>1</v>
-      </c>
-      <c r="B171" s="6" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="14">
+        <v>1</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="14">
-        <v>1</v>
-      </c>
-      <c r="B172" s="6" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="14">
+        <v>1</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="14">
-        <v>1</v>
-      </c>
-      <c r="B173" s="6" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="14">
+        <v>1</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="14">
-        <v>1</v>
-      </c>
-      <c r="B174" s="4" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="14">
+        <v>1</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="14">
-        <v>1</v>
-      </c>
-      <c r="B175" s="6" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="14">
+        <v>1</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="14">
-        <v>1</v>
-      </c>
-      <c r="B176" s="6" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="14">
+        <v>1</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="14">
-        <v>1</v>
-      </c>
-      <c r="B177" s="6" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="14">
+        <v>1</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="14">
-        <v>1</v>
-      </c>
-      <c r="B178" s="6" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="14">
+        <v>1</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="14">
-        <v>1</v>
-      </c>
-      <c r="B179" s="6" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="14">
+        <v>1</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="14">
-        <v>1</v>
-      </c>
-      <c r="B180" s="6" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="14">
+        <v>1</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="14">
-        <v>1</v>
-      </c>
-      <c r="B181" s="6" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="14">
+        <v>1</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="14">
-        <v>1</v>
-      </c>
-      <c r="B182" s="6" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="14">
+        <v>1</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="14">
-        <v>1</v>
-      </c>
-      <c r="B183" s="6" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="14">
+        <v>1</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="14">
-        <v>1</v>
-      </c>
-      <c r="B184" s="6" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="14">
+        <v>1</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="14">
-        <v>1</v>
-      </c>
-      <c r="B185" s="6" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="14">
+        <v>1</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="14">
-        <v>1</v>
-      </c>
-      <c r="B186" s="6" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="14">
+        <v>1</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="14">
-        <v>1</v>
-      </c>
-      <c r="B187" s="6" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="14">
+        <v>1</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="14">
-        <v>1</v>
-      </c>
-      <c r="B188" s="6" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="14">
+        <v>1</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="14">
-        <v>1</v>
-      </c>
-      <c r="B189" s="6" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="14">
+        <v>1</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="14">
-        <v>1</v>
-      </c>
-      <c r="B190" s="6" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="14">
+        <v>1</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="14">
-        <v>1</v>
-      </c>
-      <c r="B191" s="6" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="14">
+        <v>1</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="14">
-        <v>1</v>
-      </c>
-      <c r="B192" s="6" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="14">
+        <v>1</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="14">
-        <v>1</v>
-      </c>
-      <c r="B193" s="6" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="14">
+        <v>1</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="14">
-        <v>1</v>
-      </c>
-      <c r="B194" s="6" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="14">
+        <v>1</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="14">
-        <v>1</v>
-      </c>
-      <c r="B195" s="6" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="14">
+        <v>1</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="14">
-        <v>1</v>
-      </c>
-      <c r="B196" s="6" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="14">
+        <v>1</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="14">
-        <v>1</v>
-      </c>
-      <c r="B197" s="6" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="14">
+        <v>1</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="14">
-        <v>1</v>
-      </c>
-      <c r="B198" s="6" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" s="14">
+        <v>1</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="14">
-        <v>1</v>
-      </c>
-      <c r="B199" s="6" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" s="14">
+        <v>1</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="14">
-        <v>1</v>
-      </c>
-      <c r="B200" s="6" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201" s="14">
+        <v>1</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="14">
-        <v>1</v>
-      </c>
-      <c r="B201" s="6" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202" s="14">
+        <v>1</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="14">
-        <v>1</v>
-      </c>
-      <c r="B202" s="6" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A203" s="14">
+        <v>1</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="14">
-        <v>1</v>
-      </c>
-      <c r="B203" s="6" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204" s="14">
+        <v>1</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="14">
-        <v>1</v>
-      </c>
-      <c r="B204" s="6" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205" s="14">
+        <v>1</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="14">
-        <v>1</v>
-      </c>
-      <c r="B205" s="6" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206" s="14">
+        <v>1</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="14">
-        <v>1</v>
-      </c>
-      <c r="B206" s="6" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A207" s="14">
+        <v>1</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="14">
-        <v>1</v>
-      </c>
-      <c r="B207" s="6" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A208" s="14">
+        <v>1</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="14">
-        <v>1</v>
-      </c>
-      <c r="B208" s="6" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A209" s="14">
+        <v>1</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="14">
-        <v>1</v>
-      </c>
-      <c r="B209" s="6" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A210" s="14">
+        <v>1</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="14">
-        <v>1</v>
-      </c>
-      <c r="B210" s="6" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A211" s="14">
+        <v>1</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="14">
-        <v>1</v>
-      </c>
-      <c r="B211" s="6" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A212" s="14">
+        <v>1</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="14">
-        <v>1</v>
-      </c>
-      <c r="B212" s="6" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A213" s="14">
+        <v>1</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="14">
-        <v>1</v>
-      </c>
-      <c r="B213" s="6" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A214" s="14">
+        <v>1</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="14">
-        <v>1</v>
-      </c>
-      <c r="B214" s="6" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A215" s="14">
+        <v>1</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="14">
-        <v>1</v>
-      </c>
-      <c r="B215" s="6" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A216" s="14">
+        <v>1</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="14">
-        <v>1</v>
-      </c>
-      <c r="B216" s="6" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A217" s="14">
+        <v>1</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="14">
-        <v>1</v>
-      </c>
-      <c r="B217" s="6" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A218" s="14">
+        <v>1</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="14">
-        <v>1</v>
-      </c>
-      <c r="B218" s="6" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A219" s="14">
+        <v>1</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="14">
-        <v>1</v>
-      </c>
-      <c r="B219" s="6" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A220" s="14">
+        <v>1</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="14">
-        <v>1</v>
-      </c>
-      <c r="B220" s="6" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A221" s="14">
+        <v>1</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="14">
-        <v>1</v>
-      </c>
-      <c r="B221" s="6" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A222" s="14">
+        <v>1</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="14">
-        <v>1</v>
-      </c>
-      <c r="B222" s="6" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A223" s="14">
+        <v>1</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="14">
-        <v>1</v>
-      </c>
-      <c r="B223" s="6" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A224" s="14">
+        <v>1</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="14">
-        <v>1</v>
-      </c>
-      <c r="B224" s="6" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A225" s="14">
+        <v>1</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="14">
-        <v>1</v>
-      </c>
-      <c r="B225" s="6" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A226" s="14">
+        <v>1</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="14">
-        <v>1</v>
-      </c>
-      <c r="B226" s="6" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A227" s="14">
+        <v>1</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="14">
-        <v>1</v>
-      </c>
-      <c r="B227" s="6" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A228" s="14">
+        <v>1</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="14">
-        <v>1</v>
-      </c>
-      <c r="B228" s="6" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A229" s="14">
+        <v>1</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="14">
-        <v>1</v>
-      </c>
-      <c r="B229" s="6" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A230" s="14">
+        <v>1</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="14">
-        <v>1</v>
-      </c>
-      <c r="B230" s="6" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A231" s="14">
+        <v>1</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="14">
-        <v>1</v>
-      </c>
-      <c r="B231" s="6" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A232" s="14">
+        <v>1</v>
+      </c>
+      <c r="B232" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="14">
-        <v>1</v>
-      </c>
-      <c r="B232" s="6" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A233" s="14">
+        <v>1</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="14">
-        <v>1</v>
-      </c>
-      <c r="B233" s="6" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A234" s="14">
+        <v>1</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="14">
-        <v>1</v>
-      </c>
-      <c r="B234" s="6" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A235" s="14">
+        <v>1</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="14">
-        <v>1</v>
-      </c>
-      <c r="B235" s="6" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A236" s="14">
+        <v>1</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="14">
-        <v>1</v>
-      </c>
-      <c r="B236" s="6" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A237" s="14">
+        <v>1</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="14">
-        <v>1</v>
-      </c>
-      <c r="B237" s="6" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A238" s="14">
+        <v>1</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="14">
-        <v>1</v>
-      </c>
-      <c r="B238" s="6" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A239" s="14">
+        <v>1</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="14">
-        <v>1</v>
-      </c>
-      <c r="B239" s="6" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240" s="14">
+        <v>1</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="14">
-        <v>1</v>
-      </c>
-      <c r="B240" s="6" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A241" s="14">
+        <v>1</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="14">
-        <v>1</v>
-      </c>
-      <c r="B241" s="6" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A242" s="14">
+        <v>1</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="14">
-        <v>1</v>
-      </c>
-      <c r="B242" s="6" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A243" s="14">
+        <v>1</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="14">
-        <v>1</v>
-      </c>
-      <c r="B243" s="6" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A244" s="14">
+        <v>1</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="14">
-        <v>1</v>
-      </c>
-      <c r="B244" s="6" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A245" s="14">
+        <v>1</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="14">
-        <v>1</v>
-      </c>
-      <c r="B245" s="6" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A246" s="14">
+        <v>1</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="14">
-        <v>1</v>
-      </c>
-      <c r="B246" s="6" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A247" s="14">
+        <v>1</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="14">
-        <v>1</v>
-      </c>
-      <c r="B247" s="6" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A248" s="14">
+        <v>1</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="14">
-        <v>1</v>
-      </c>
-      <c r="B248" s="6" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A249" s="14">
+        <v>1</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="14">
-        <v>1</v>
-      </c>
-      <c r="B249" s="6" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A250" s="14">
+        <v>1</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="14">
-        <v>1</v>
-      </c>
-      <c r="B250" s="6" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A251" s="14">
+        <v>1</v>
+      </c>
+      <c r="B251" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="14">
-        <v>1</v>
-      </c>
-      <c r="B251" s="6" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A252" s="14">
+        <v>1</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="14">
-        <v>1</v>
-      </c>
-      <c r="B252" s="6" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A253" s="14">
+        <v>1</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="14">
-        <v>1</v>
-      </c>
-      <c r="B253" s="6" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A254" s="14">
+        <v>1</v>
+      </c>
+      <c r="B254" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="14">
-        <v>1</v>
-      </c>
-      <c r="B254" s="6" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A255" s="14">
+        <v>1</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="14">
-        <v>1</v>
-      </c>
-      <c r="B255" s="6" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A256" s="14">
+        <v>1</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="14">
-        <v>1</v>
-      </c>
-      <c r="B256" s="6" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A257" s="14">
+        <v>1</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="14">
-        <v>1</v>
-      </c>
-      <c r="B257" s="6" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A258" s="14">
+        <v>1</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="14">
-        <v>1</v>
-      </c>
-      <c r="B258" s="6" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A259" s="14">
+        <v>1</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="14">
-        <v>1</v>
-      </c>
-      <c r="B259" s="6" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A260" s="14">
+        <v>1</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="14">
-        <v>1</v>
-      </c>
-      <c r="B260" s="6" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A261" s="14">
+        <v>1</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="14">
-        <v>1</v>
-      </c>
-      <c r="B261" s="6" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A262" s="14">
+        <v>1</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="14">
-        <v>1</v>
-      </c>
-      <c r="B262" s="6" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A263" s="14">
+        <v>1</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="14">
-        <v>1</v>
-      </c>
-      <c r="B263" s="6" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A264" s="14">
+        <v>1</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="14">
-        <v>1</v>
-      </c>
-      <c r="B264" s="6" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A265" s="14">
+        <v>1</v>
+      </c>
+      <c r="B265" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="14">
-        <v>1</v>
-      </c>
-      <c r="B265" s="6" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A266" s="14">
+        <v>1</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="14">
-        <v>1</v>
-      </c>
-      <c r="B266" s="6" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A267" s="14">
+        <v>1</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="14">
-        <v>1</v>
-      </c>
-      <c r="B267" s="6" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A268" s="14">
+        <v>1</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="14">
-        <v>1</v>
-      </c>
-      <c r="B268" s="6" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A269" s="14">
+        <v>1</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="14">
-        <v>1</v>
-      </c>
-      <c r="B269" s="6" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A270" s="14">
+        <v>1</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="14">
-        <v>1</v>
-      </c>
-      <c r="B270" s="6" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A271" s="14">
+        <v>1</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="14">
-        <v>1</v>
-      </c>
-      <c r="B271" s="6" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A272" s="14">
+        <v>1</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="14">
-        <v>1</v>
-      </c>
-      <c r="B272" s="6" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A273" s="14">
+        <v>1</v>
+      </c>
+      <c r="B273" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="14">
-        <v>1</v>
-      </c>
-      <c r="B273" s="6" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A274" s="14">
+        <v>1</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="14">
-        <v>1</v>
-      </c>
-      <c r="B274" s="6" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A275" s="14">
+        <v>1</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="14">
-        <v>1</v>
-      </c>
-      <c r="B275" s="6" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276" s="14">
+        <v>1</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="14">
-        <v>1</v>
-      </c>
-      <c r="B276" s="6" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A277" s="14">
+        <v>1</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="14">
-        <v>1</v>
-      </c>
-      <c r="B277" s="6" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A278" s="14">
+        <v>1</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="14">
-        <v>1</v>
-      </c>
-      <c r="B278" s="6" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A279" s="14">
+        <v>1</v>
+      </c>
+      <c r="B279" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="14">
-        <v>1</v>
-      </c>
-      <c r="B279" s="6" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A280" s="14">
+        <v>1</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="14">
-        <v>1</v>
-      </c>
-      <c r="B280" s="6" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A281" s="14">
+        <v>1</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="14">
-        <v>1</v>
-      </c>
-      <c r="B281" s="6" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A282" s="14">
+        <v>1</v>
+      </c>
+      <c r="B282" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="14">
-        <v>1</v>
-      </c>
-      <c r="B282" s="6" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A283" s="14">
+        <v>1</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="14">
-        <v>1</v>
-      </c>
-      <c r="B283" s="6" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A284" s="14">
+        <v>1</v>
+      </c>
+      <c r="B284" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="14">
-        <v>1</v>
-      </c>
-      <c r="B284" s="6" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A285" s="14">
+        <v>1</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="14">
-        <v>1</v>
-      </c>
-      <c r="B285" s="6" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A286" s="14">
+        <v>1</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="14">
-        <v>1</v>
-      </c>
-      <c r="B286" s="6" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A287" s="14">
+        <v>1</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="14">
-        <v>1</v>
-      </c>
-      <c r="B287" s="6" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A288" s="14">
+        <v>1</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="14">
-        <v>1</v>
-      </c>
-      <c r="B288" s="6" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A289" s="14">
+        <v>1</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="14">
-        <v>1</v>
-      </c>
-      <c r="B289" s="6" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A290" s="14">
+        <v>1</v>
+      </c>
+      <c r="B290" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="14">
-        <v>1</v>
-      </c>
-      <c r="B290" s="6" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A291" s="14">
+        <v>1</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="14">
-        <v>1</v>
-      </c>
-      <c r="B291" s="6" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A292" s="14">
+        <v>1</v>
+      </c>
+      <c r="B292" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="14">
-        <v>1</v>
-      </c>
-      <c r="B292" s="6" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A293" s="14">
+        <v>1</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="14">
-        <v>1</v>
-      </c>
-      <c r="B293" s="6" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A294" s="14">
+        <v>1</v>
+      </c>
+      <c r="B294" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="14">
-        <v>1</v>
-      </c>
-      <c r="B294" s="6" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A295" s="14">
+        <v>1</v>
+      </c>
+      <c r="B295" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="14">
-        <v>1</v>
-      </c>
-      <c r="B295" s="6" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A296" s="14">
+        <v>1</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="14">
-        <v>1</v>
-      </c>
-      <c r="B296" s="6" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A297" s="14">
+        <v>1</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="14">
-        <v>1</v>
-      </c>
-      <c r="B297" s="6" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A298" s="14">
+        <v>1</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="14">
-        <v>1</v>
-      </c>
-      <c r="B298" s="6" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A299" s="14">
+        <v>1</v>
+      </c>
+      <c r="B299" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="14">
-        <v>1</v>
-      </c>
-      <c r="B299" s="6" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A300" s="14">
+        <v>1</v>
+      </c>
+      <c r="B300" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="14">
-        <v>1</v>
-      </c>
-      <c r="B300" s="6" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A301" s="14">
+        <v>1</v>
+      </c>
+      <c r="B301" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="14">
-        <v>1</v>
-      </c>
-      <c r="B301" s="6" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A302" s="14">
+        <v>1</v>
+      </c>
+      <c r="B302" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="14">
-        <v>1</v>
-      </c>
-      <c r="B302" s="6" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A303" s="14">
+        <v>1</v>
+      </c>
+      <c r="B303" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="14">
-        <v>1</v>
-      </c>
-      <c r="B303" s="6" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A304" s="14">
+        <v>1</v>
+      </c>
+      <c r="B304" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="14">
-        <v>1</v>
-      </c>
-      <c r="B304" s="6" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A305" s="14">
+        <v>1</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="14">
-        <v>1</v>
-      </c>
-      <c r="B305" s="6" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A306" s="14">
+        <v>1</v>
+      </c>
+      <c r="B306" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="14">
-        <v>1</v>
-      </c>
-      <c r="B306" s="6" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A307" s="14">
+        <v>1</v>
+      </c>
+      <c r="B307" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="14">
-        <v>1</v>
-      </c>
-      <c r="B307" s="6" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A308" s="14">
+        <v>1</v>
+      </c>
+      <c r="B308" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="14">
-        <v>1</v>
-      </c>
-      <c r="B308" s="6" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A309" s="14">
+        <v>1</v>
+      </c>
+      <c r="B309" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="14">
-        <v>1</v>
-      </c>
-      <c r="B309" s="6" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A310" s="14">
+        <v>1</v>
+      </c>
+      <c r="B310" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="14">
-        <v>1</v>
-      </c>
-      <c r="B310" s="6" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A311" s="14">
+        <v>1</v>
+      </c>
+      <c r="B311" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="14">
-        <v>1</v>
-      </c>
-      <c r="B311" s="6" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A312" s="14">
+        <v>1</v>
+      </c>
+      <c r="B312" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="14">
-        <v>1</v>
-      </c>
-      <c r="B312" s="6" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A313" s="14">
+        <v>1</v>
+      </c>
+      <c r="B313" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="14">
-        <v>1</v>
-      </c>
-      <c r="B313" s="6" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A314" s="14">
+        <v>1</v>
+      </c>
+      <c r="B314" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="14">
-        <v>1</v>
-      </c>
-      <c r="B314" s="6" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A315" s="14">
+        <v>1</v>
+      </c>
+      <c r="B315" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="14">
-        <v>1</v>
-      </c>
-      <c r="B315" s="6" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A316" s="14">
+        <v>1</v>
+      </c>
+      <c r="B316" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="14">
-        <v>1</v>
-      </c>
-      <c r="B316" s="6" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A317" s="14">
+        <v>1</v>
+      </c>
+      <c r="B317" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="14">
-        <v>1</v>
-      </c>
-      <c r="B317" s="6" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A318" s="14">
+        <v>1</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A319" s="14">
+        <v>1</v>
+      </c>
+      <c r="B319" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="14">
-        <v>1</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="14">
-        <v>1</v>
-      </c>
-      <c r="B319" s="6" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A320" s="14">
+        <v>1</v>
+      </c>
+      <c r="B320" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="14">
-        <v>1</v>
-      </c>
-      <c r="B320" s="6" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A321" s="14">
+        <v>1</v>
+      </c>
+      <c r="B321" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="14">
-        <v>1</v>
-      </c>
-      <c r="B321" s="6" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A322" s="14">
+        <v>1</v>
+      </c>
+      <c r="B322" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="14">
-        <v>1</v>
-      </c>
-      <c r="B322" s="6" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A323" s="14">
+        <v>1</v>
+      </c>
+      <c r="B323" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="14">
-        <v>1</v>
-      </c>
-      <c r="B323" s="6" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A324" s="14">
+        <v>1</v>
+      </c>
+      <c r="B324" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="14">
-        <v>1</v>
-      </c>
-      <c r="B324" s="6" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A325" s="14">
+        <v>1</v>
+      </c>
+      <c r="B325" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="14">
-        <v>1</v>
-      </c>
-      <c r="B325" s="6" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A326" s="14">
+        <v>1</v>
+      </c>
+      <c r="B326" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="14">
-        <v>1</v>
-      </c>
-      <c r="B326" s="6" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A327" s="14">
+        <v>1</v>
+      </c>
+      <c r="B327" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="14">
-        <v>1</v>
-      </c>
-      <c r="B327" s="6" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A328" s="14">
+        <v>1</v>
+      </c>
+      <c r="B328" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="14">
-        <v>1</v>
-      </c>
-      <c r="B328" s="6" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A329" s="14">
+        <v>1</v>
+      </c>
+      <c r="B329" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="14">
-        <v>1</v>
-      </c>
-      <c r="B329" s="6" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A330" s="14">
+        <v>1</v>
+      </c>
+      <c r="B330" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="14">
-        <v>1</v>
-      </c>
-      <c r="B330" s="6" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A331" s="14">
+        <v>1</v>
+      </c>
+      <c r="B331" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="14">
-        <v>1</v>
-      </c>
-      <c r="B331" s="6" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A332" s="14">
+        <v>1</v>
+      </c>
+      <c r="B332" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="14">
-        <v>1</v>
-      </c>
-      <c r="B332" s="6" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A333" s="14">
+        <v>1</v>
+      </c>
+      <c r="B333" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="14">
-        <v>1</v>
-      </c>
-      <c r="B333" s="6" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A334" s="14">
+        <v>1</v>
+      </c>
+      <c r="B334" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="14">
-        <v>1</v>
-      </c>
-      <c r="B334" s="6" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A335" s="14">
+        <v>1</v>
+      </c>
+      <c r="B335" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="14">
-        <v>1</v>
-      </c>
-      <c r="B335" s="6" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A336" s="14">
+        <v>1</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="14">
-        <v>1</v>
-      </c>
-      <c r="B336" s="6" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A337" s="14">
+        <v>1</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="14">
-        <v>1</v>
-      </c>
-      <c r="B337" s="6" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A338" s="14">
+        <v>1</v>
+      </c>
+      <c r="B338" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="14">
-        <v>1</v>
-      </c>
-      <c r="B338" s="6" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A339" s="14">
+        <v>1</v>
+      </c>
+      <c r="B339" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="14">
-        <v>1</v>
-      </c>
-      <c r="B339" s="6" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A340" s="14">
+        <v>1</v>
+      </c>
+      <c r="B340" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="14">
-        <v>1</v>
-      </c>
-      <c r="B340" s="6" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A341" s="14">
+        <v>1</v>
+      </c>
+      <c r="B341" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="14">
-        <v>1</v>
-      </c>
-      <c r="B341" s="6" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A342" s="14">
+        <v>1</v>
+      </c>
+      <c r="B342" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="14">
-        <v>1</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>